--- a/parameter.xlsx
+++ b/parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hawhamburgedu-my.sharepoint.com/personal/wzo448_haw-hamburg_de/Documents/Confluence Sources/Flip/Matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="11_AD4DB114E441178AC67DF4E29E92D136683EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73D0AE4E-208B-4531-85F1-AC8F35F25084}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="11_AD4DB114E441178AC67DF4E29E92D136683EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEA85B7F-7504-4730-BABF-1A5B261CAFC5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
   <si>
     <t>parameter</t>
   </si>
@@ -172,6 +172,21 @@
   </si>
   <si>
     <t>width</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>duration of simulation</t>
+  </si>
+  <si>
+    <t>ε</t>
+  </si>
+  <si>
+    <t>small length</t>
   </si>
 </sst>
 </file>
@@ -258,10 +273,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -652,7 +663,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -669,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -679,53 +690,53 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>0.5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -742,13 +753,13 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -759,7 +770,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -776,13 +787,13 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -793,13 +804,13 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -810,13 +821,13 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -827,13 +838,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -844,13 +855,13 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -859,88 +870,122 @@
         <v>28</v>
       </c>
     </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>0.8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>2.5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>0.2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
         <v>20</v>
       </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
         <v>60</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>21</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F28" t="s">
         <v>18</v>
       </c>
     </row>
